--- a/data/trans_bre/P5_4-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_4-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,37%</t>
+          <t>16,34%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 8,25</t>
+          <t>-1,98; 18,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 7,07</t>
+          <t>-4,41; 17,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 22,78</t>
+          <t>-4,63; 66,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 20,47</t>
+          <t>-10,42; 59,23</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,45</t>
+          <t>-9,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,34</t>
+          <t>-9,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-19,7%</t>
+          <t>-21,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,36%</t>
+          <t>-22,21%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 0,51</t>
+          <t>-21,99; 1,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,28; -0,15</t>
+          <t>-23,02; 1,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 1,05</t>
+          <t>-44,76; 4,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,59; -0,37</t>
+          <t>-45,06; 2,38</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,99</t>
+          <t>-13,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>-10,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,08%</t>
+          <t>-30,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-15,63%</t>
+          <t>-24,98%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,62; 12,52</t>
+          <t>-40,09; 18,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-24,37; 13,03</t>
+          <t>-35,47; 21,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-48,02; 35,86</t>
+          <t>-62,78; 76,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-47,88; 44,78</t>
+          <t>-61,39; 87,8</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>-3,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,97%</t>
+          <t>-5,67%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 1,67</t>
+          <t>-8,58; 6,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 1,01</t>
+          <t>-9,67; 5,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 4,37</t>
+          <t>-19,42; 18,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 2,82</t>
+          <t>-21,78; 16,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_4-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_4-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,91</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,79</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>22,71%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>16,34%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.911964694994405</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.235791056905537</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.2271086831232494</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1416178252528599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,98; 18,89</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,41; 17,21</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 66,03</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-10,42; 59,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.979449949063038</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.152430165009264</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.04633565477616035</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1236889736028997</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>18.8871078143363</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.03511810845123</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.6603236518125815</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.5541467998727598</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-9,16</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-9,9</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-21,27%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-22,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-21,99; 1,69</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-23,02; 1,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-44,76; 4,1</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-45,06; 2,38</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-9.159567296448035</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-5.535238958364619</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.2127471183398731</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.1346850635129407</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-13,62</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-10,3</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-30,31%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-24,98%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-21.99175399006809</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-18.82683130394399</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.4475967150068706</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3895906338004571</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-40,09; 18,28</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-35,47; 21,5</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-62,78; 76,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-61,39; 87,8</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.688787735178299</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.735801055480076</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.04096058393531092</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.1629986239926321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,05%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-5,67%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-13.61931322375055</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-14.6830837543293</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.3031277676642589</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.342145711948857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,58; 6,41</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,67; 5,86</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-19,42; 18,64</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-21,78; 16,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-40.08773653148472</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-40.92835306173831</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.6277583464544521</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.6553988140999631</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.27523203622997</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.10594103258952</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.7640415100751602</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.7270993190615171</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.196324473343985</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.161683431241822</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.03045177496205123</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.0295540672897916</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.576712634019081</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.660257956009113</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1942435647269184</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1982402097170465</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.410776777520883</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.488000552373084</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1864059416871298</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2264079125821817</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
